--- a/design/Enum.Mob.xlsx
+++ b/design/Enum.Mob.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6CBC3C-AE95-4D7A-9E93-5D979A99D9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F4919-A4D1-4A19-90C1-B1A1A4B8FBC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="AttackType" sheetId="3" r:id="rId1"/>
+    <sheet name="ActionPattern" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Preemptive</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +41,22 @@
   </si>
   <si>
     <t>후공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -436,4 +453,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085AFF3E-33F9-4F7E-8895-D46B5936EF8B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/Enum.Mob.xlsx
+++ b/design/Enum.Mob.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F4919-A4D1-4A19-90C1-B1A1A4B8FBC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2BD97F-D921-4923-9932-84B8F31A18C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="AttackType" sheetId="3" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,19 +432,19 @@
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085AFF3E-33F9-4F7E-8895-D46B5936EF8B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,19 +469,19 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
